--- a/demo/py_outputs/Village_Bihar_hits.xlsx
+++ b/demo/py_outputs/Village_Bihar_hits.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="44">
   <si>
     <t>censuscode2011</t>
   </si>
@@ -88,6 +88,12 @@
     <t>Barmatpur</t>
   </si>
   <si>
+    <t>Jalsain</t>
+  </si>
+  <si>
+    <t>Saho</t>
+  </si>
+  <si>
     <t>Gauri Dih</t>
   </si>
   <si>
@@ -103,6 +109,9 @@
     <t>Muzaffarpur</t>
   </si>
   <si>
+    <t>Madhubani</t>
+  </si>
+  <si>
     <t>Bihar</t>
   </si>
   <si>
@@ -124,6 +133,9 @@
     <t>[151]</t>
   </si>
   <si>
+    <t>[116]</t>
+  </si>
+  <si>
     <t>Benipur</t>
   </si>
   <si>
@@ -131,6 +143,9 @@
   </si>
   <si>
     <t>Kanti</t>
+  </si>
+  <si>
+    <t>Phulparas</t>
   </si>
 </sst>
 </file>
@@ -488,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -546,10 +561,10 @@
         <v>847202</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2">
         <v>32612</v>
@@ -558,22 +573,22 @@
         <v>6459</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -587,10 +602,10 @@
         <v>848202</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F3">
         <v>5993</v>
@@ -599,22 +614,22 @@
         <v>1244</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -628,10 +643,10 @@
         <v>848202</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F4">
         <v>7808</v>
@@ -640,22 +655,22 @@
         <v>1554</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -669,10 +684,10 @@
         <v>847202</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>5546</v>
@@ -681,22 +696,22 @@
         <v>1051</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J5">
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -710,10 +725,10 @@
         <v>848208</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F6">
         <v>2076</v>
@@ -722,22 +737,22 @@
         <v>402</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -751,10 +766,10 @@
         <v>848202</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F7">
         <v>1351</v>
@@ -763,22 +778,22 @@
         <v>270</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -792,10 +807,10 @@
         <v>848202</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F8">
         <v>3923</v>
@@ -804,22 +819,22 @@
         <v>738</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J8">
         <v>2</v>
       </c>
       <c r="K8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -833,10 +848,10 @@
         <v>848202</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F9">
         <v>14925</v>
@@ -845,22 +860,22 @@
         <v>3052</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M9" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -874,10 +889,10 @@
         <v>848202</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F10">
         <v>1516</v>
@@ -886,22 +901,22 @@
         <v>343</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -915,10 +930,10 @@
         <v>848208</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F11">
         <v>7456</v>
@@ -927,22 +942,22 @@
         <v>1755</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M11" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -956,10 +971,10 @@
         <v>843131</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F12">
         <v>1968</v>
@@ -968,63 +983,145 @@
         <v>292</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13">
-        <v>237429</v>
+        <v>220670</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
       </c>
       <c r="C13">
-        <v>848202</v>
+        <v>847411</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>1841</v>
+        <v>6262</v>
       </c>
       <c r="G13">
-        <v>458</v>
+        <v>1280</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
       <c r="K13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" t="s">
+        <v>43</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14">
+        <v>227702</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>847202</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14">
+        <v>27390</v>
+      </c>
+      <c r="G14">
+        <v>5124</v>
+      </c>
+      <c r="H14" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" t="s">
         <v>34</v>
       </c>
-      <c r="L13" t="s">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15">
+        <v>237429</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>848202</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15">
+        <v>1841</v>
+      </c>
+      <c r="G15">
+        <v>458</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
         <v>37</v>
       </c>
-      <c r="M13" t="s">
-        <v>37</v>
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
